--- a/test/test_fifo/test_plan.xlsx
+++ b/test/test_fifo/test_plan.xlsx
@@ -19,26 +19,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Test Plan</t>
   </si>
   <si>
-    <t>FIFO is empty, write data to FIFO</t>
-  </si>
-  <si>
     <t>DUT Feature</t>
   </si>
   <si>
-    <t>FIFO is not empty, read data from
- FIFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement write task in DRV: waiting for a pos-edge clock, pull down "rd" pin, pull up "wr" pin, push data to "data_in"
+    <t>Write data to FIFO</t>
+  </si>
+  <si>
+    <t>Read data from FIFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Implement write task in DRV: 
++ Waiting for a pos-edge clock, pull down "rd" pin, pull up "wr" pin, push data to "data_in"
++ Waiting for a pos-edge clock, pull down "wr" pin, waitting for a pos-edge clock
+'- Implement monitor task in MON: 
++ Waiting for 2 pos-edge clock, capture "data_in", "full", "empty", "wr", "rd" pins
++ Waiting for next 1 pos-edge clock, capture "data_out" pin
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Implement read task in DRV: waiting for a pos-edge clock, pull down "wr" pin, pull up "rd" pin, get data to "data_out"
+    <t>Test Detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Implement read task in DRV: waiting for a pos-edge clock, pull down "wr" pin, pull up "rd" pin
+'- Implement monitor task in MON: 
++ Waiting for 2 pos-edge clock, capture "data_in", "full", "empty", "wr", "rd" pins
++ Waiting for next 1 pos-edge clock, capture "data_out" pin
+</t>
+  </si>
+  <si>
+    <t>- Use GEN generate read operation, push to DRV and SCO
+- DRV write data to DUT
+- MON read data from DUT, push to SCO
+- SCO compare data between GEN and MON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Use GEN generate write operation, push to DRV and SCO
+- DRV write data to DUT
+- MON read data from DUT, push to SCO
 </t>
   </si>
 </sst>
@@ -55,15 +77,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,17 +120,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -104,6 +169,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDDDDDD"/>
+      <color rgb="FF808080"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -378,71 +449,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="J9:K9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
